--- a/medicine/Mort/Syndicat_intercommunal_funéraire_de_la_région_parisienne/Syndicat_intercommunal_funéraire_de_la_région_parisienne.xlsx
+++ b/medicine/Mort/Syndicat_intercommunal_funéraire_de_la_région_parisienne/Syndicat_intercommunal_funéraire_de_la_région_parisienne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Syndicat_intercommunal_fun%C3%A9raire_de_la_r%C3%A9gion_parisienne</t>
+          <t>Syndicat_intercommunal_funéraire_de_la_région_parisienne</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Syndicat Intercommunal Funéraire de la Région Parisienne (SIFUREP) est un Établissement public de coopération intercommunale français sans fiscalité propre, situé dans les départements des Hauts-de-Seine, de Seine-Saint-Denis, du Val-de-Marne, du Val-d'Oise, de l'Essonne et des Yvelines.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Syndicat_intercommunal_fun%C3%A9raire_de_la_r%C3%A9gion_parisienne</t>
+          <t>Syndicat_intercommunal_funéraire_de_la_région_parisienne</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Composé en juillet 2022 de 107 membres[1], il organise le service public funéraire, gère les crématoriums ainsi que les cimetières des collectivités adhérentes[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Composé en juillet 2022 de 107 membres, il organise le service public funéraire, gère les crématoriums ainsi que les cimetières des collectivités adhérentes.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Syndicat_intercommunal_fun%C3%A9raire_de_la_r%C3%A9gion_parisienne</t>
+          <t>Syndicat_intercommunal_funéraire_de_la_région_parisienne</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Présidence</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 </t>
